--- a/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f511_tra_cuu_trang_thai_CPN.xlsx
+++ b/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f511_tra_cuu_trang_thai_CPN.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STT</t>
-  </si>
-  <si>
-    <t>Tên Phòng</t>
   </si>
   <si>
     <t>Người Nhận</t>
@@ -58,8 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -167,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,6 +193,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -207,17 +213,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,16 +512,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="35" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="22" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
@@ -527,17 +533,17 @@
     <row r="1" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>4</v>
+      <c r="A2" s="17" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -545,50 +551,48 @@
     </row>
     <row r="3" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="14" t="s">
-        <v>5</v>
+      <c r="B3" s="18" t="s">
+        <v>4</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:13" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>9</v>
+      <c r="F5" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>3</v>
+      <c r="H5" s="11" t="s">
+        <v>9</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -597,56 +601,56 @@
     <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>

--- a/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f511_tra_cuu_trang_thai_CPN.xlsx
+++ b/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f511_tra_cuu_trang_thai_CPN.xlsx
@@ -55,9 +55,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -108,7 +107,7 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -165,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +200,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -212,17 +214,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -502,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,7 +504,7 @@
   <dimension ref="A1:M348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +512,7 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="35" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
@@ -534,16 +525,15 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -551,21 +541,21 @@
     </row>
     <row r="3" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:13" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -574,10 +564,10 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -602,55 +592,46 @@
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
